--- a/3nen_GT_7/DXlib/DXlib/Assets/Data/map.xlsx
+++ b/3nen_GT_7/DXlib/DXlib/Assets/Data/map.xlsx
@@ -351,7 +351,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1536,64 +1536,64 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/3nen_GT_7/DXlib/DXlib/Assets/Data/map.xlsx
+++ b/3nen_GT_7/DXlib/DXlib/Assets/Data/map.xlsx
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1412,187 +1412,63 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>2</v>
-      </c>
-      <c r="O20">
-        <v>2</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
         <v>2</v>
       </c>
     </row>

--- a/3nen_GT_7/DXlib/DXlib/Assets/Data/map.xlsx
+++ b/3nen_GT_7/DXlib/DXlib/Assets/Data/map.xlsx
@@ -351,7 +351,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -1451,10 +1451,10 @@
         <v>2</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18">
         <v>2</v>

--- a/3nen_GT_7/DXlib/DXlib/Assets/Data/map.xlsx
+++ b/3nen_GT_7/DXlib/DXlib/Assets/Data/map.xlsx
@@ -21,6 +21,47 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0=空白</t>
+    <rPh sb="2" eb="4">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1=壁</t>
+    <rPh sb="2" eb="3">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2=床</t>
+    <rPh sb="2" eb="3">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3=金属</t>
+    <rPh sb="2" eb="4">
+      <t>キンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4=ゴール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1472,6 +1513,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
